--- a/biology/Zoologie/Enclos-apier/Enclos-apier.xlsx
+++ b/biology/Zoologie/Enclos-apier/Enclos-apier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un enclos-apier (ou enclos à ruches ou encore enclos à abeilles), tel qu'on le rencontre dans les Alpes-Maritimes et le Var, regroupe un ensemble de ruches disposées sur une série de gradins ou dans des alvéoles ménagées dans les murs de l'enclos.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enclos-apiers (apié en provençal et niçois) étaient construits selon l'époque en pierre sèche ou hourdée. Ils regroupaient et protégeaient une série de ruches artisanales dites bruscs, creusées dans des troncs de chêne-liège et posées soit sur des banquettes de terre empierrées disposées en gradins, soit dans des alvéoles réservées dans les murs exposés au soleil. Les bruscs n'étaient jamais mis à même le sol, ils étaient toujours posés sur au moins une pierre plate.
 Plus rarement, comme dans le massif de l’Esterel, on retrouve des ruches en céramique.
@@ -553,16 +567,12 @@
           <t>Les enclos de la vallée de la Vallée de la Roya</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces enclos, appelés naijou (vasque, bassin ?) à Tende et ca d'arbinié (maison des abeilles) à La Brigue, protègent une série de gradins empierrés sur lesquels sont disposés les bruscs ; ils comportent généralement une cabane ou abri pour le matériel et les outils.
-On ignore l'origine de ces deux noms très différents pour des structures très proches. On évoque de plus en plus une origine en rapport avec l'essaimage de groupes de pasteurs centre-alpins très anciens ayant des migrations différentes selon leurs besoins (sel, troc de viande, conquêtes ou fuites, incluant ceux qui ont laissé leurs dessins dans la vallée des Merveilles[1],[2],[3].
-Les naijous de Tende
-			Naijou (no 3 de Masseti), alt. : 882 m.
-			Naijou (no 12) à la sortie nord de Tende, alt. : 836 m.
-Les ca d'arbinié de La Brigue
-			Ca d'arbinié de l'évêché, restauré par le Conseil Général du Var, alt. : 802 m.
-			Ca d'arbinié du Pla, au sud de La Brigue, alt. : 976 m.
+On ignore l'origine de ces deux noms très différents pour des structures très proches. On évoque de plus en plus une origine en rapport avec l'essaimage de groupes de pasteurs centre-alpins très anciens ayant des migrations différentes selon leurs besoins (sel, troc de viande, conquêtes ou fuites, incluant ceux qui ont laissé leurs dessins dans la vallée des Merveilles.
 </t>
         </is>
       </c>
@@ -588,19 +598,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Les autres enclos des Alpes-Maritimes</t>
+          <t>Les enclos de la vallée de la Vallée de la Roya</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enclos-apier du château à Escragnolles
-Cet enclos-apier, dit « du château », à Escragnolles (alt. : 783 m) a deux particularités :
-il est adossé à une paroi rocheuse perforée de nombreux trous ou alvéoles de tailles différentes : un grand nombre de ruches sauvages devait exister à cet endroit ;
-il a été utilisé secondairement comme enclos à moutons : il en reste les deux piliers caractéristiques en regard de la grotte principale (où on ne retrouve cependant aucun débris de ruche sauvage)[4].
-			Apier du château à Escragnolles, adossé à la paroi, extérieur.
-			Apier du château à Escragnolles, intérieur.
-L'apié des Baguettes à Roquefort-les-pins
-Cet apier en pierres sèches est situé chemin du pas de l'Aï à Roquefort-les-pins. Le rucher est construit dans un enclos circulaire d'une dizaine de mètres de diamètre fermé par un mur d'enceinte large de plus d'un mètre avec une ouverture au nord-est. 21 niches sont aménagées en cercle côté intérieur du mur d'enceinte pour recevoir des bruscs[5].
+          <t>Les naijous de Tende</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Naijou (no 3 de Masseti), alt. : 882 m.
+			Naijou (no 12) à la sortie nord de Tende, alt. : 836 m.
 </t>
         </is>
       </c>
@@ -626,22 +637,252 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Les enclos de la vallée de la Vallée de la Roya</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les ca d'arbinié de La Brigue</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Ca d'arbinié de l'évêché, restauré par le Conseil Général du Var, alt. : 802 m.
+			Ca d'arbinié du Pla, au sud de La Brigue, alt. : 976 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Enclos-apier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enclos-apier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les autres enclos des Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Enclos-apier du château à Escragnolles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet enclos-apier, dit « du château », à Escragnolles (alt. : 783 m) a deux particularités :
+il est adossé à une paroi rocheuse perforée de nombreux trous ou alvéoles de tailles différentes : un grand nombre de ruches sauvages devait exister à cet endroit ;
+il a été utilisé secondairement comme enclos à moutons : il en reste les deux piliers caractéristiques en regard de la grotte principale (où on ne retrouve cependant aucun débris de ruche sauvage).
+			Apier du château à Escragnolles, adossé à la paroi, extérieur.
+			Apier du château à Escragnolles, intérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Enclos-apier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enclos-apier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les autres enclos des Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'apié des Baguettes à Roquefort-les-pins</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet apier en pierres sèches est situé chemin du pas de l'Aï à Roquefort-les-pins. Le rucher est construit dans un enclos circulaire d'une dizaine de mètres de diamètre fermé par un mur d'enceinte large de plus d'un mètre avec une ouverture au nord-est. 21 niches sont aménagées en cercle côté intérieur du mur d'enceinte pour recevoir des bruscs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Enclos-apier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enclos-apier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Les enclos du Var [6],[7],[8], [9]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enclos-apier avec ruches en céramique du massif de l'Estérel
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Enclos-apier avec ruches en céramique du massif de l'Estérel</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Partie subsistante de l'enclos du Capelan (alt. : 219 m).
 			Fragments de céramique (ruches) encore en place sur les gradins de pierre.
-Enclos-apiers avec cabane (abri)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Enclos-apier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enclos-apier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les enclos du Var [6],[7],[8], [9]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Enclos-apiers avec cabane (abri)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Enclos-apier de Correns (alt. : 219 m), à 4 gradins et cabanon extérieur.
 			Enclos-apier de Mons, Var, avec cabane-abri dans la paroi, en angle (alt. : 885 m).
 			Schéma de l'enclos de Mons (alt. : 817 m).
-Enclos-apiers simples
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Enclos-apier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enclos-apier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les enclos du Var [6],[7],[8], [9]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Enclos-apiers simples</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Enclos-apier simple de Mons-Valbouissole à 7 alvéoles au niveau du sol.
-Enclos-apiers du pauvre : le mur-apier
-Classiquement, un mur-apier avait douze (comme les apôtres) alvéoles[10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Enclos-apier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enclos-apier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les enclos du Var [6],[7],[8], [9]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Enclos-apiers du pauvre : le mur-apier</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Classiquement, un mur-apier avait douze (comme les apôtres) alvéoles.
 			Mons, Var :Mur-apier, avec ses alvéoles
 </t>
         </is>
